--- a/biology/Zoologie/Caligus_curtus/Caligus_curtus.xlsx
+++ b/biology/Zoologie/Caligus_curtus/Caligus_curtus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caligus curtus est une espèce de crustacés copépodes de l'ordre des Siphonostomatoida et de la famille des Caligidae. C'est l'espèce type de son genre.
 C'est un parasite de la morue de l'Atlantique.
